--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,11 +467,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -487,11 +487,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -587,11 +587,11 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -627,11 +627,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -667,11 +667,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -707,11 +707,11 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -727,11 +727,11 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -767,11 +767,11 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -827,11 +827,11 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -867,11 +867,11 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -887,11 +887,11 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -907,11 +907,11 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -1007,11 +1007,11 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -1047,11 +1047,11 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -1087,11 +1087,11 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -1207,11 +1207,11 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -1227,11 +1227,11 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -1367,11 +1367,11 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -1387,11 +1387,11 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -1487,11 +1487,11 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -1507,11 +1507,11 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -1587,11 +1587,11 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -1627,11 +1627,11 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -1647,11 +1647,11 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -1747,11 +1747,11 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -1767,11 +1767,11 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -1787,11 +1787,11 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -1807,11 +1807,11 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -1867,11 +1867,11 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -1887,11 +1887,11 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -1907,11 +1907,11 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -2047,11 +2047,11 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -2067,11 +2067,11 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -2107,11 +2107,11 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -2127,11 +2127,11 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -2167,11 +2167,11 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -2187,11 +2187,11 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -2347,11 +2347,11 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -2387,11 +2387,11 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -2427,11 +2427,11 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -2507,11 +2507,11 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -2547,11 +2547,11 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -2587,11 +2587,11 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -2847,11 +2847,11 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -2927,11 +2927,11 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
@@ -2987,11 +2987,691 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>figure</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>身材</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>cheek</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>脸颊</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>dimple</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>酒窝</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>forehead</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>额头</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>brow</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>额头; 眉毛</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>eyebrow</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>眉毛</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>eyeball</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>眼球</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>pupil</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>瞳孔</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>lid</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>眼睑</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>eyelid</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>眼睑</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>lash</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>睫毛</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>eyelash</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>睫毛</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>beak</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>喙; 鹰钩鼻</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>nostril</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>鼻孔</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>snub</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>轻蔑; (鼻子)短平而上翘的</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>palate</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>上颚; 味蕾; 鉴赏力</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>roof</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>屋顶</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>lip</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>嘴唇</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>gum</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>口香糖; 牙龈</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>dentures</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>义齿</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>jaw</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>下巴</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>skull</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>头骨</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>坚果; 螺母; 轴承</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>temple</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>寺庙; 腺体</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>trunk</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>树干; 躯干</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>torso</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>胸和腹之间的部分</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>neck</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>脖子</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>shoulder</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>肩膀</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>pit</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>坑; 洞; 矿井; 困境; 胳肢窝</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>chest</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>胸腔</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>breast</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>乳房</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>bosom</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>乳房</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>bust</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>胸部; 打碎; 使破产; 破产的</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>nipple</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>乳头</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2025-09-04</t>
         </is>
       </c>
     </row>
